--- a/src/test/resources/Assignment6.xlsx
+++ b/src/test/resources/Assignment6.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\noufz\IdeaProjects\SDA-Assigment\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3EC0269-A13A-4C37-9641-7A3483FCA023}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A76837E-0C5A-4F7C-8947-80251782E973}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9510" yWindow="0" windowWidth="9780" windowHeight="10170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Assignment6" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Country</t>
   </si>
@@ -56,14 +56,22 @@
   </si>
   <si>
     <t>185,180 </t>
+  </si>
+  <si>
+    <t>Algeria</t>
+  </si>
+  <si>
+    <t>Pakistan</t>
+  </si>
+  <si>
+    <t>Monaco</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -197,6 +205,13 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="7"/>
+      <color rgb="FF202122"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="33">
@@ -540,9 +555,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -918,71 +934,71 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="12.54296875"/>
+    <col min="2" max="2" width="12.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" t="s" s="0">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="0">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" t="s" s="0">
+      <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s" s="0">
+      <c r="B2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" t="s" s="0">
+      <c r="A3" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="1">
         <v>17098246</v>
       </c>
-      <c r="C3" t="n" s="0">
-        <v>400000.0</v>
+      <c r="C3">
+        <v>400000</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" t="s" s="0">
+      <c r="A4" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="1">
         <v>9984670</v>
       </c>
-      <c r="C4" t="n" s="0">
-        <v>500000.0</v>
+      <c r="C4">
+        <v>500000</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" t="s" s="0">
+      <c r="A5" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="1">
         <v>89342</v>
       </c>
-      <c r="C5" t="n" s="0">
-        <v>600000.0</v>
+      <c r="C5">
+        <v>600000</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" t="s" s="0">
+      <c r="A6" t="s">
         <v>8</v>
       </c>
       <c r="B6" s="1">
@@ -990,7 +1006,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" t="s" s="0">
+      <c r="A7" t="s">
         <v>9</v>
       </c>
       <c r="B7" s="1">
@@ -998,11 +1014,35 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" t="s" s="0">
+      <c r="A8" t="s">
         <v>10</v>
       </c>
-      <c r="B8" t="s" s="0">
+      <c r="B8" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="1">
+        <v>2381741</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="1">
+        <v>882363</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="1">
+        <v>200000</v>
       </c>
     </row>
   </sheetData>
